--- a/TestAutomation/ExcelSheet/TestDataAutomation.xlsx
+++ b/TestAutomation/ExcelSheet/TestDataAutomation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15915" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Ramprasad</t>
   </si>
@@ -71,6 +71,33 @@
   </si>
   <si>
     <t>Mr.</t>
+  </si>
+  <si>
+    <t>WARD</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>CLERK</t>
+  </si>
+  <si>
+    <t>IMB</t>
+  </si>
+  <si>
+    <t>Luther driver</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Terst</t>
+  </si>
+  <si>
+    <t>trt</t>
   </si>
 </sst>
 </file>
@@ -416,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,8 +532,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
